--- a/biology/Botanique/Cyanoboletus_poikilochromus/Cyanoboletus_poikilochromus.xlsx
+++ b/biology/Botanique/Cyanoboletus_poikilochromus/Cyanoboletus_poikilochromus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet polychrome
 Cyanoboletus poikilochromus, le Bolet polychrome, est une espèce rare de champignons (Fungi) basidiomycètes du genre Cyanoboletus dans la famille des Boletaceae. Il a la caractéristique de former des cristaux au niveau de ses pores en séchant.
@@ -512,53 +524,196 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cyanoboletus poikilochromus (Pöder, Cetto &amp; Zuccherelli) M.Carbone, D.Puddu &amp; P.Alvarado, 2023[1].
-Certaines sources, autres que MycoBank[1], mentionnent toujours cette espèce sous le taxon Cupreoboletus poikilochromus[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus poikilochromus Pöder, Cetto &amp; Zuccher., 1987[1].
-Synonymes
-Cyanoboletus poikilochromus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cyanoboletus poikilochromus (Pöder, Cetto &amp; Zuccherelli) M.Carbone, D.Puddu &amp; P.Alvarado, 2023.
+Certaines sources, autres que MycoBank, mentionnent toujours cette espèce sous le taxon Cupreoboletus poikilochromus.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus poikilochromus Pöder, Cetto &amp; Zuccher., 1987.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cyanoboletus poikilochromus a pour synonymes :
 Boletus poikilochromus Pöder, Cetto &amp; Zuccher., 1987
 Boletus pulverulentus f. reticulatipes Cetto, 1983
 Boletus pulverulentus f. reticulatipes Cetto, 1987
 Cupreoboletus poikilochromus (Pöder, Cetto &amp; Zuccherelli) Simonini, Gelardi &amp; Vizzini, 2015
-Suillellus poikilochromus (Pöder, Cetto &amp; Zuccher.) Blanco-Dios, 2015
-Phylogénie
-Espèce rare et récente, identifiée en 1987 et placée dans le genre Boletus. En 2015, l'espèce a été recombinée dans le genre Suillellus, mais un désaccord persiste entre les différents auteurs quant au nom prioritaire à donner à ce champignon. Toutes les recombinaisons dans Suillellus par Blanco-Dios se référant à des taxons autres que queletii et luridus manquent de soutien phylogénétique et sont donc invalides. Par conséquent, la classification correcte actuelle de ce champignon est dans le nouveau genre Cupreoboletus (2015), qui est érigé, grâce aux examens moléculaires, comme un nouveau genre monospécifique de Boletaceae comprenant une seule espèce thermophile du sud de l'Europe, caractérisée par une décoloration vers des teintes rouge cuivre sur l'ensemble, un hyménophore qui forme de petits cristaux en séchant, une odeur sucrée avec une longue persistance et la présence de pseudocystides[3].
-Étymologie
-Le genre Cupreoboletus se réfère à cuprum (latin), cuivre, en référence à la tendance des sporophores de ce genre à mûrir en prenant des teintes cuivrées. L'adjectif spécifique poikilochromus, "polychrome", fait référence à la grande variabilité de couleurs de cette espèce[4].
-Noms vulgaires et vernaculaires
-Bolet polychrome, Bolet multicolore[5].
+Suillellus poikilochromus (Pöder, Cetto &amp; Zuccher.) Blanco-Dios, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce rare et récente, identifiée en 1987 et placée dans le genre Boletus. En 2015, l'espèce a été recombinée dans le genre Suillellus, mais un désaccord persiste entre les différents auteurs quant au nom prioritaire à donner à ce champignon. Toutes les recombinaisons dans Suillellus par Blanco-Dios se référant à des taxons autres que queletii et luridus manquent de soutien phylogénétique et sont donc invalides. Par conséquent, la classification correcte actuelle de ce champignon est dans le nouveau genre Cupreoboletus (2015), qui est érigé, grâce aux examens moléculaires, comme un nouveau genre monospécifique de Boletaceae comprenant une seule espèce thermophile du sud de l'Europe, caractérisée par une décoloration vers des teintes rouge cuivre sur l'ensemble, un hyménophore qui forme de petits cristaux en séchant, une odeur sucrée avec une longue persistance et la présence de pseudocystides.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cupreoboletus se réfère à cuprum (latin), cuivre, en référence à la tendance des sporophores de ce genre à mûrir en prenant des teintes cuivrées. L'adjectif spécifique poikilochromus, "polychrome", fait référence à la grande variabilité de couleurs de cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet polychrome, Bolet multicolore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Cupreoboletus poikilochromus sont les suivantes :
 Son chapeau est de couleur jaunâtre brunâtre, commençant généralement de couleur blanchâtre, mais pouvant aussi finir par être saumon, brun ou rouge. Une marge blanche s'observe parfois au bord du chapeau chez les spécimens matures.
@@ -569,93 +724,99 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien. Méditerranéen et rare, il pousse sous Quercus, parfois mélangé avec d'autres essences, comme Erica, Arbutus, Ostrya ou Pinus, de septembre à octobre[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien. Méditerranéen et rare, il pousse sous Quercus, parfois mélangé avec d'autres essences, comme Erica, Arbutus, Ostrya ou Pinus, de septembre à octobre.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bolet polychrome est sans intérêt d'un point de vue gustatif, statut principalement dû à sa rareté. En tant que Bolet de la section Luridi, il est toxique cru, mais comestible bien cuit. Toutefois, en l'absence d'informations précises sur la comestibilité, il est préférable de le considérer comme non comestible par mesure de précaution[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet polychrome est sans intérêt d'un point de vue gustatif, statut principalement dû à sa rareté. En tant que Bolet de la section Luridi, il est toxique cru, mais comestible bien cuit. Toutefois, en l'absence d'informations précises sur la comestibilité, il est préférable de le considérer comme non comestible par mesure de précaution.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanoboletus_poikilochromus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Le Bolet blafard (Suillellus luridus),  au chapeau plus sombre et aux pores et stipe plus orangés.
 Le Bolet magnifique (Exsudoporus permagnificus), au chapeau rougeâtre et aux pores exsudant un liquide jaunâtre jeune.
